--- a/数据整理/stocks/A股/上证主板/601137-博威合金.xlsx
+++ b/数据整理/stocks/A股/上证主板/601137-博威合金.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>65.07</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>81.10</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2.47</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6072</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>30.42</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>89.72</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>3.18</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9674</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>8</v>
       </c>
     </row>
@@ -553,7 +583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,15 +604,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -604,15 +644,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>30.98</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2.75</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -632,15 +682,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>30.98</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>2.75</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>4</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601137-博威合金.xlsx
+++ b/数据整理/stocks/A股/上证主板/601137-博威合金.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -707,4 +708,212 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009402</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银施罗德启明混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>27.16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7007</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519700</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银主题优选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.36</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>70.57</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3730</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>970020</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>信达价值精选一年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>22.92</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>970021</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>信达价值精选一年持有期灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>22.92</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601137-博威合金.xlsx
+++ b/数据整理/stocks/A股/上证主板/601137-博威合金.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -916,4 +917,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601137-博威合金.xlsx
+++ b/数据整理/stocks/A股/上证主板/601137-博威合金.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -925,7 +926,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -936,17 +937,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -956,14 +977,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.11</v>
+          <t>006299</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>恒越核心精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>69.05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.01</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6641</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -972,14 +1015,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.02</v>
+          <t>002292</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺安益鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>40.55</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>46.71</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5936</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -988,13 +1053,287 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>007193</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>恒越核心精选混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>31.91</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.01</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7690</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>530005</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>建信优化配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>24.27</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.06</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7330</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>163822</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中银主题策略混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2300</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>200010</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长城双动力混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0609</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004320</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源沪港深乐享生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.06</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
       <c r="D4" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
         <v>2.57</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601137-博威合金.xlsx
+++ b/数据整理/stocks/A股/上证主板/601137-博威合金.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1248,7 +1249,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1259,17 +1260,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1279,14 +1300,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.06</v>
+          <t>920003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中金新锐股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>24.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8452</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1295,14 +1338,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>163804</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中银收益混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>19.19</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.56</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6160</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.11</v>
       </c>
     </row>
     <row r="4">
@@ -1311,14 +1376,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.02</v>
+          <t>163822</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中银主题策略混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.73</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2312</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -1327,13 +1414,341 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>920923</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中金新锐股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1351</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>200010</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长城双动力混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.77</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0952</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014505</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中银收益混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.56</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002292</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>诺安益鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>50.08</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004320</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>前海开源沪港深乐享生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.24</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>960012</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中银收益混合H</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.56</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.06</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>2</v>
       </c>
       <c r="D5" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
         <v>2.57</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601137-博威合金.xlsx
+++ b/数据整理/stocks/A股/上证主板/601137-博威合金.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1647,7 +1648,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1658,17 +1659,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1678,14 +1699,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.98</v>
+          <t>163804</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中银收益混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7750</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1694,14 +1737,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.06</v>
+          <t>013141</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中信保诚弘远混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>20.98</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5119</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1710,14 +1775,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.11</v>
+          <t>165516</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>信诚周期轮动混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18.94</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4811</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1726,14 +1813,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.02</v>
+          <t>163822</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中银主题策略混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.77</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3942</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -1742,13 +1851,699 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>006049</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>恒越研究精选混合A/B</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2058</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007192</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>恒越研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1701</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014505</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中银收益混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0467</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010740</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇安核心价值混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0423</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>310368</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>申万菱信竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0422</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005009</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>申万菱信行业轮动股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007439</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东海科技动力混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.75</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010741</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇安核心价值混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004320</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>前海开源沪港深乐享生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007463</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>东海科技动力混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.75</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>015173</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>申万菱信竞争优势混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006538</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>东海核心价值精选混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>960012</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中银收益混合H</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>015157</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>申万菱信行业轮动股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>014335</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>信诚周期轮动混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>19</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.06</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
         <v>2.57</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601137-博威合金.xlsx
+++ b/数据整理/stocks/A股/上证主板/601137-博威合金.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,129 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>519704</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>交银先进制造混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>65.07</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>81.10</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.47</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.6072</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>19</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.75</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009402</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>交银施罗德启明混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>30.42</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>89.72</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.18</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.9674</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.06</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.57</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -588,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -609,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -639,32 +639,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002604</t>
+          <t>163804</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华夏新起点灵活配置混合A</t>
+          <t>中银收益混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>21.06</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>30.98</t>
+          <t>89.89</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>3.68</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0173</t>
+          <t>0.7750</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -677,36 +677,682 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008213</t>
+          <t>013141</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华夏新起点灵活配置混合C</t>
+          <t>中信保诚弘远混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>20.98</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>30.98</t>
+          <t>89.89</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>2.44</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0003</t>
+          <t>0.5119</t>
         </is>
       </c>
       <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>165516</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>信诚周期轮动混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18.94</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4811</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>163822</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中银主题策略混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.77</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3942</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006049</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>恒越研究精选混合A/B</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2058</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007192</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>恒越研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1701</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014505</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中银收益混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0467</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010740</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇安核心价值混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0423</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>310368</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>申万菱信竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0422</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005009</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>申万菱信行业轮动股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007439</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东海科技动力混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.75</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010741</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇安核心价值混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004320</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>前海开源沪港深乐享生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007463</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>东海科技动力混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.75</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>015173</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>申万菱信竞争优势混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006538</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>东海核心价值精选混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>960012</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中银收益混合H</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>015157</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>申万菱信行业轮动股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>014335</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>信诚周期轮动混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -720,7 +1366,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -741,7 +1387,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -771,36 +1417,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009402</t>
+          <t>920003</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>交银施罗德启明混合</t>
+          <t>中金新锐股票A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>27.16</t>
+          <t>24.64</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>82.43</t>
+          <t>92.76</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.58</t>
+          <t>3.43</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.7007</t>
+          <t>0.8452</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -809,36 +1455,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>519700</t>
+          <t>163804</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>交银主题优选混合</t>
+          <t>中银收益混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>16.36</t>
+          <t>19.19</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>70.57</t>
+          <t>85.56</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.28</t>
+          <t>3.21</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3730</t>
+          <t>0.6160</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -847,36 +1493,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>970020</t>
+          <t>163822</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>信达价值精选一年持有期灵活配置混合A</t>
+          <t>中银主题策略混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>7.89</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>22.92</t>
+          <t>84.73</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>2.93</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0206</t>
+          <t>0.2312</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -885,36 +1531,226 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>970021</t>
+          <t>920923</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>信达价值精选一年持有期灵活配置混合B</t>
+          <t>中金新锐股票C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>3.94</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>22.92</t>
+          <t>92.76</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>3.43</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0161</t>
+          <t>0.1351</t>
         </is>
       </c>
       <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>200010</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长城双动力混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.77</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0952</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014505</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中银收益混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.56</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002292</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>诺安益鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>50.08</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004320</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>前海开源沪港深乐享生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.24</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>960012</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中银收益混合H</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.56</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1250,7 +2086,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1271,7 +2107,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1301,36 +2137,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>920003</t>
+          <t>009402</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中金新锐股票A</t>
+          <t>交银施罗德启明混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>24.64</t>
+          <t>27.16</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.76</t>
+          <t>82.43</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.43</t>
+          <t>2.58</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.8452</t>
+          <t>0.7007</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1339,36 +2175,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>163804</t>
+          <t>519700</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中银收益混合A</t>
+          <t>交银主题优选混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>19.19</t>
+          <t>16.36</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>85.56</t>
+          <t>70.57</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.21</t>
+          <t>2.28</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.6160</t>
+          <t>0.3730</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1377,36 +2213,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>163822</t>
+          <t>970020</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中银主题策略混合</t>
+          <t>信达价值精选一年持有期灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>7.89</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>84.73</t>
+          <t>22.92</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2312</t>
+          <t>0.0206</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -1415,226 +2251,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>920923</t>
+          <t>970021</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中金新锐股票C</t>
+          <t>信达价值精选一年持有期灵活配置混合B</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.94</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.76</t>
+          <t>22.92</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.43</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1351</t>
+          <t>0.0161</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>200010</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>长城双动力混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2.03</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>86.77</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.69</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0952</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>014505</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>中银收益混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>85.56</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0315</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>002292</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>诺安益鑫灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>50.08</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.46</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0134</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>004320</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>前海开源沪港深乐享生活灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>85.24</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>5.87</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0100</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
         <v>3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>960012</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>中银收益混合H</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>85.56</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0010</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1648,7 +2294,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1669,7 +2315,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1699,32 +2345,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>163804</t>
+          <t>002604</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中银收益混合A</t>
+          <t>华夏新起点灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>21.06</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.89</t>
+          <t>30.98</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.68</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.7750</t>
+          <t>0.0173</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1737,682 +2383,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>013141</t>
+          <t>008213</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中信保诚弘远混合</t>
+          <t>华夏新起点灵活配置混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>20.98</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>89.89</t>
+          <t>30.98</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.44</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.5119</t>
+          <t>0.0003</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>165516</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>信诚周期轮动混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>18.94</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>90.32</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.54</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.4811</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>163822</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中银主题策略混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>10.77</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.02</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.66</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.3942</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
         <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>006049</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>恒越研究精选混合A/B</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>5.25</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>91.57</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.92</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.2058</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>007192</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>恒越研究精选混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>4.34</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>91.57</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.92</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1701</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>014505</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>中银收益混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1.27</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>89.89</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.68</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0467</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>010740</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>汇安核心价值混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>93.69</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.65</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0423</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>310368</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>申万菱信竞争优势混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1.07</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>94.18</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.94</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0422</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>005009</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>申万菱信行业轮动股票</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.73</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>92.03</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.54</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0258</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>007439</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>东海科技动力混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.33</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>90.75</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>5.05</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0167</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>010741</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>汇安核心价值混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.32</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>93.69</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4.65</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0149</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>004320</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>前海开源沪港深乐享生活灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>88.81</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>6.30</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0113</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>007463</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>东海科技动力混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>90.75</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>5.05</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0091</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>015173</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>申万菱信竞争优势混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>94.18</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>3.94</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0024</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>006538</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>东海核心价值精选混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>91.21</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>4.70</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0014</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>960012</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>中银收益混合H</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>89.89</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>3.68</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0011</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>015157</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>申万菱信行业轮动股票C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>92.03</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>3.54</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0011</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>014335</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>信诚周期轮动混合（LOF）C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>90.32</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>2.54</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0008</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2426,128 +2426,128 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>19</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.75</v>
+          <t>519704</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银先进制造混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>65.07</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6072</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.98</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5.06</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.11</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" t="n">
-        <v>2.57</v>
+          <t>009402</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银施罗德启明混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>30.42</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.72</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9674</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601137-博威合金.xlsx
+++ b/数据整理/stocks/A股/上证主板/601137-博威合金.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>2.75</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D3" t="n">
-        <v>1.98</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>5.06</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>1.11</v>
+        <v>5.06</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>0.02</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>2</v>
       </c>
       <c r="D7" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
         <v>2.57</v>
       </c>
     </row>
@@ -583,6 +600,290 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010114</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>80.50</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1164</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>310368</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>申万菱信竞争优势混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0486</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004320</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源沪港深乐享生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>71.16</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007463</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东海科技动力混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.12</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007439</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东海科技动力混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.12</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>015173</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>申万菱信竞争优势混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1360,7 +1661,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1758,7 +2059,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2080,7 +2381,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2288,7 +2589,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2420,7 +2721,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/601137-博威合金.xlsx
+++ b/数据整理/stocks/A股/上证主板/601137-博威合金.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>0.19</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>2.75</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D4" t="n">
-        <v>1.98</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>5.06</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>1.11</v>
+        <v>5.06</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>0.02</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>2</v>
       </c>
       <c r="D8" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="n">
         <v>2.57</v>
       </c>
     </row>
@@ -600,6 +617,438 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>378010</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上投摩根成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.07</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2619</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>370024</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根核心优选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>77.24</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1591</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004194</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004195</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011054</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫智选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>25.20</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519222</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>海富通欣益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>31.65</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>015057</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>上投摩根核心优选混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>77.24</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519221</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>海富通欣益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>31.65</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>015077</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>上投摩根成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.07</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011055</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫智选混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>25.20</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -883,7 +1332,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1661,7 +2110,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2059,7 +2508,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2381,7 +2830,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2589,7 +3038,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2721,7 +3170,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
